--- a/Question3.xlsx
+++ b/Question3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtong\Documents\98. PAPER TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dscshap3808\Documents\my_scripts_new\nike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3719CA7-9896-42F7-9083-E5C7BCC79F6F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73085A27-4D4F-4463-889F-84461DC28736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" xr2:uid="{90F64423-A79A-43D7-8800-A4ECAB0231DE}"/>
+    <workbookView xWindow="850" yWindow="-110" windowWidth="18460" windowHeight="11020" activeTab="1" xr2:uid="{90F64423-A79A-43D7-8800-A4ECAB0231DE}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="518">
   <si>
     <t>SKU</t>
   </si>
@@ -1480,93 +1480,123 @@
     <t>If product MSRP is premium price</t>
   </si>
   <si>
+    <t>Number of same price SKUs in the same Division</t>
+  </si>
+  <si>
+    <t>Number of same price SKUs in the same Division and Category</t>
+  </si>
+  <si>
+    <t>The first season of SKU launch</t>
+  </si>
+  <si>
+    <t>Number of colors on the SKU</t>
+  </si>
+  <si>
+    <t>Color 1</t>
+  </si>
+  <si>
+    <t>Color 2</t>
+  </si>
+  <si>
+    <t>Color 3</t>
+  </si>
+  <si>
+    <t>If the color is Tripple White</t>
+  </si>
+  <si>
+    <t>If the color is Black Gold</t>
+  </si>
+  <si>
+    <t>If the color is Grey</t>
+  </si>
+  <si>
+    <t>If the color is University Red</t>
+  </si>
+  <si>
+    <t>If the color is Black White</t>
+  </si>
+  <si>
+    <t>If the product has a brand story</t>
+  </si>
+  <si>
+    <t>If it is a Retro product</t>
+  </si>
+  <si>
+    <t>If the product is Summer special</t>
+  </si>
+  <si>
+    <t>If the product is Winter special</t>
+  </si>
+  <si>
+    <t>If the product is carried from last season</t>
+  </si>
+  <si>
+    <t>If the product is a brand new product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the product is a seasonal new product </t>
+  </si>
+  <si>
+    <t>If the product is carry over product</t>
+  </si>
+  <si>
+    <t>Number of seasons since the SKU was launched</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of products with the same style</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of products with the same power franchise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of products with the same model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of days since SKU launch in the season</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>If product MSRP is general price</t>
-  </si>
-  <si>
-    <t>Number of same price SKUs in the same Division</t>
-  </si>
-  <si>
-    <t>Number of same price SKUs in the same Division and Category</t>
-  </si>
-  <si>
-    <t>The first season of SKU launch</t>
-  </si>
-  <si>
-    <t>Number of seasons since the SKU was launched</t>
-  </si>
-  <si>
-    <t>Number of colors on the SKU</t>
-  </si>
-  <si>
-    <t>Color 1</t>
-  </si>
-  <si>
-    <t>Color 2</t>
-  </si>
-  <si>
-    <t>Color 3</t>
-  </si>
-  <si>
-    <t>If the color is Tripple White</t>
-  </si>
-  <si>
-    <t>If the color is Black Gold</t>
-  </si>
-  <si>
-    <t>If the color is Grey</t>
-  </si>
-  <si>
-    <t>If the color is University Red</t>
-  </si>
-  <si>
-    <t>If the color is Black White</t>
-  </si>
-  <si>
-    <t>If the product has a brand story</t>
-  </si>
-  <si>
-    <t>If it is a Retro product</t>
-  </si>
-  <si>
-    <t>If the product is Summer special</t>
-  </si>
-  <si>
-    <t>If the product is Winter special</t>
-  </si>
-  <si>
-    <t>Number of products with the same style</t>
-  </si>
-  <si>
-    <t>Number of products with the same model</t>
-  </si>
-  <si>
-    <t>Number of products with the same power franchise</t>
-  </si>
-  <si>
-    <t>If the product is carried from last season</t>
-  </si>
-  <si>
-    <t>If the product is a brand new product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the product is a seasonal new product </t>
-  </si>
-  <si>
-    <t>If the product is carry over product</t>
-  </si>
-  <si>
-    <t>Number of days since SKU launch in the season</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>mdape</t>
+  </si>
+  <si>
+    <t>smape</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>180 days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1574,8 +1604,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1942,38 +1979,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD006A7-98CE-40B0-BFBD-9AA42950DDEB}">
   <dimension ref="A1:AD440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.4140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.4140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.9140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.75" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -42457,28 +42496,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE1C92E-6D90-4719-8518-68ED9ADE46DE}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="F33" activeCellId="1" sqref="F34:K34 F33:L33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.109375" customWidth="1"/>
+    <col min="2" max="2" width="67.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -42486,7 +42528,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -42494,7 +42536,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -42502,7 +42544,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -42510,204 +42552,204 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -42715,10 +42757,61 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>509</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>510</v>
+      </c>
+      <c r="G33" t="s">
+        <v>511</v>
+      </c>
+      <c r="H33" t="s">
+        <v>512</v>
+      </c>
+      <c r="I33" t="s">
+        <v>513</v>
+      </c>
+      <c r="J33" t="s">
+        <v>514</v>
+      </c>
+      <c r="K33" t="s">
+        <v>515</v>
+      </c>
+      <c r="L33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G34">
+        <v>4.2956000000000001E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.207259</v>
+      </c>
+      <c r="I34">
+        <v>0.159361</v>
+      </c>
+      <c r="J34">
+        <v>1.127251</v>
+      </c>
+      <c r="K34">
+        <v>1.267833</v>
+      </c>
+      <c r="L34">
+        <v>0.113492</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>